--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.040821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.040821.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2903,12 +2903,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6875,12 +6875,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7179,12 +7179,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7445,12 +7445,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7597,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7947,12 +7947,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8061,12 +8061,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8671,12 +8671,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9553,12 +9553,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9819,12 +9819,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11273,12 +11273,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11311,12 +11311,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11771,12 +11771,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11809,12 +11809,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12037,12 +12037,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12075,12 +12075,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12341,12 +12341,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
